--- a/2._ProcessedData/eventos.xlsx
+++ b/2._ProcessedData/eventos.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">Fecha_Pre5</t>
+  </si>
   <si>
     <t xml:space="preserve">Fecha_Inicial</t>
   </si>
@@ -20,7 +23,7 @@
     <t xml:space="preserve">Fecha_Ultima_Intervencion</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha_Ventana</t>
+    <t xml:space="preserve">Fecha_Post5</t>
   </si>
   <si>
     <t xml:space="preserve">Tipo</t>
@@ -38,13 +41,22 @@
     <t xml:space="preserve">Monto_Promedio_Dia</t>
   </si>
   <si>
+    <t xml:space="preserve">Tasa_Pre5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa_Pre1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tasa_Inicial</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasa_Ventana</t>
+    <t xml:space="preserve">Tasa_Ultima_Intervencion</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasa_Ultima_Intervencion</t>
+    <t xml:space="preserve">Tasa_Post1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa_Post5</t>
   </si>
   <si>
     <t xml:space="preserve">Cambio_Tasa</t>
@@ -53,7 +65,13 @@
     <t xml:space="preserve">Cambio_Promedio</t>
   </si>
   <si>
+    <t xml:space="preserve">Tasa_Pre_Promedio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tasa_Promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa_Post_Promedio</t>
   </si>
   <si>
     <t xml:space="preserve">Puts (accumulation of IR)</t>
@@ -451,3437 +469,4859 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>37258</v>
+        <v>37257</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>37258</v>
       </c>
       <c r="C2" s="1" t="n">
+        <v>37258</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>37263</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>27.5</v>
-      </c>
       <c r="H2" t="n">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>2291.18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2295.59</v>
       </c>
       <c r="K2" t="n">
         <v>2291.18</v>
       </c>
       <c r="L2" t="n">
+        <v>2291.18</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2291.18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2289.42</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2295.59</v>
+      </c>
+      <c r="P2" t="n">
         <v>4.41000000000031</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>458.236</v>
+      </c>
+      <c r="S2" t="n">
         <v>2291.18</v>
+      </c>
+      <c r="T2" t="n">
+        <v>11466.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37271</v>
+        <v>37266</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>37271</v>
       </c>
       <c r="C3" s="1" t="n">
+        <v>37271</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>37276</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
-        <v>22.5</v>
-      </c>
       <c r="H3" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2306.35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2304.54</v>
+      </c>
+      <c r="L3" t="n">
         <v>2297.31</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
+        <v>2297.31</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2280.73</v>
+      </c>
+      <c r="O3" t="n">
         <v>2269.76</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
+        <v>-36.5899999999997</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>461.2616</v>
+      </c>
+      <c r="S3" t="n">
         <v>2297.31</v>
       </c>
-      <c r="L3" t="n">
-        <v>-27.5499999999997</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2297.31</v>
+      <c r="T3" t="n">
+        <v>11350.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37292</v>
+        <v>37287</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>37292</v>
       </c>
       <c r="C4" s="1" t="n">
+        <v>37292</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>37297</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2264.82</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2267.33</v>
+      </c>
+      <c r="L4" t="n">
         <v>2266.61</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>2266.61</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2259.81</v>
+      </c>
+      <c r="O4" t="n">
         <v>2272.76</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
+        <v>7.94000000000005</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>453.312</v>
+      </c>
+      <c r="S4" t="n">
         <v>2266.61</v>
       </c>
-      <c r="L4" t="n">
-        <v>6.15000000000009</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2266.61</v>
+      <c r="T4" t="n">
+        <v>11320.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>37323</v>
+        <v>37318</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>37323</v>
       </c>
       <c r="C5" s="1" t="n">
+        <v>37323</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>37328</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
         <v>5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2306.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2290</v>
+      </c>
+      <c r="L5" t="n">
         <v>2289.83</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
+        <v>2289.83</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2283.83</v>
+      </c>
+      <c r="O5" t="n">
         <v>2269.17</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
+        <v>-37.1599999999999</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>459.8164</v>
+      </c>
+      <c r="S5" t="n">
         <v>2289.83</v>
       </c>
-      <c r="L5" t="n">
-        <v>-20.6599999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2289.83</v>
+      <c r="T5" t="n">
+        <v>11390.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>37343</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>37348</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="C6" s="1" t="n">
         <v>37351</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>37356</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
       <c r="H6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2261.23</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2261.23</v>
+      </c>
+      <c r="L6" t="n">
         <v>2264.57</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
+        <v>2269.35</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2263.03</v>
+      </c>
+      <c r="O6" t="n">
         <v>2254.45</v>
       </c>
-      <c r="K6" t="n">
-        <v>2269.35</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-10.1200000000003</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
+        <v>-6.7800000000002</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.19499999999994</v>
       </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
+        <v>452.246</v>
+      </c>
+      <c r="S6" t="n">
         <v>2264.7675</v>
+      </c>
+      <c r="T6" t="n">
+        <v>11298.56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>37461</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>37466</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="C7" s="1" t="n">
         <v>37474</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="D7" s="1" t="n">
         <v>37479</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>289.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>32.1666666666667</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
+        <v>2539</v>
+      </c>
+      <c r="K7" t="n">
         <v>2596.26</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
+        <v>2596.26</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2663.81</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2670.61</v>
+      </c>
+      <c r="O7" t="n">
         <v>2568.8</v>
       </c>
-      <c r="K7" t="n">
-        <v>2663.81</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-27.46</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
+        <v>29.8000000000002</v>
+      </c>
+      <c r="Q7" t="n">
         <v>7.50555555555553</v>
       </c>
-      <c r="N7" t="n">
+      <c r="R7" t="n">
+        <v>515.3636</v>
+      </c>
+      <c r="S7" t="n">
         <v>2632.27111111111</v>
+      </c>
+      <c r="T7" t="n">
+        <v>13128.14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>37531</v>
+        <v>37526</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>37531</v>
       </c>
       <c r="C8" s="1" t="n">
+        <v>37531</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>37536</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>124.5</v>
       </c>
       <c r="H8" t="n">
         <v>124.5</v>
       </c>
       <c r="I8" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2825.32</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2850.65</v>
+      </c>
+      <c r="L8" t="n">
         <v>2885.48</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
+        <v>2885.48</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2888.23</v>
+      </c>
+      <c r="O8" t="n">
         <v>2876.4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="P8" t="n">
+        <v>51.0799999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>566.4084</v>
+      </c>
+      <c r="S8" t="n">
         <v>2885.48</v>
       </c>
-      <c r="L8" t="n">
-        <v>-9.07999999999993</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2885.48</v>
+      <c r="T8" t="n">
+        <v>14399.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>37550</v>
+        <v>37545</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>37550</v>
       </c>
       <c r="C9" s="1" t="n">
+        <v>37550</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>37555</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
         <v>5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
-        <v>50</v>
-      </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2836.34</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2755.69</v>
+        <v>2852.99</v>
       </c>
       <c r="K9" t="n">
         <v>2836.34</v>
       </c>
       <c r="L9" t="n">
-        <v>-80.6500000000001</v>
+        <v>2836.34</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2836.34</v>
       </c>
       <c r="N9" t="n">
+        <v>2791.46</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2755.69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-97.2999999999997</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>569.468</v>
+      </c>
+      <c r="S9" t="n">
         <v>2836.34</v>
+      </c>
+      <c r="T9" t="n">
+        <v>13797.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
+        <v>37678</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>37683</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="C10" s="1" t="n">
         <v>37684</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="D10" s="1" t="n">
         <v>37689</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>22</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>11</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
+        <v>2951.81</v>
+      </c>
+      <c r="K10" t="n">
         <v>2957.87</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
+        <v>2957.87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2959.97</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2962.06</v>
+      </c>
+      <c r="O10" t="n">
         <v>2959.75</v>
       </c>
-      <c r="K10" t="n">
-        <v>2959.97</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.88000000000011</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
+        <v>7.94000000000005</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.04999999999995</v>
       </c>
-      <c r="N10" t="n">
+      <c r="R10" t="n">
+        <v>590.9484</v>
+      </c>
+      <c r="S10" t="n">
         <v>2958.92</v>
+      </c>
+      <c r="T10" t="n">
+        <v>14802.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>37690</v>
+        <v>37685</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>37690</v>
       </c>
       <c r="C11" s="1" t="n">
+        <v>37690</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>37695</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>22</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>43</v>
       </c>
       <c r="I11" t="n">
-        <v>2959.75</v>
+        <v>43</v>
       </c>
       <c r="J11" t="n">
-        <v>2958.86</v>
+        <v>2962.06</v>
       </c>
       <c r="K11" t="n">
         <v>2959.75</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.889999999999873</v>
+        <v>2959.75</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2959.75</v>
       </c>
       <c r="N11" t="n">
+        <v>2961.93</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2958.86</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-3.19999999999982</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>592.0976</v>
+      </c>
+      <c r="S11" t="n">
         <v>2959.75</v>
+      </c>
+      <c r="T11" t="n">
+        <v>14804.93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>37699</v>
+        <v>37694</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>37699</v>
       </c>
       <c r="C12" s="1" t="n">
+        <v>37699</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>37704</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>79.6</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>79.6</v>
       </c>
       <c r="I12" t="n">
+        <v>79.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2959.39</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2956.47</v>
+      </c>
+      <c r="L12" t="n">
         <v>2955.84</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
+        <v>2955.84</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2955.64</v>
+      </c>
+      <c r="O12" t="n">
         <v>2956.06</v>
       </c>
-      <c r="K12" t="n">
+      <c r="P12" t="n">
+        <v>-3.32999999999993</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>591.6976</v>
+      </c>
+      <c r="S12" t="n">
         <v>2955.84</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.2199999999998</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2955.84</v>
+      <c r="T12" t="n">
+        <v>14778.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>37761</v>
+        <v>37756</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>37761</v>
       </c>
       <c r="C13" s="1" t="n">
+        <v>37761</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>37766</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>199.9</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>199.9</v>
       </c>
       <c r="I13" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2821.08</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2816.46</v>
+      </c>
+      <c r="L13" t="n">
         <v>2874.77</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
+        <v>2874.77</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2909.83</v>
+      </c>
+      <c r="O13" t="n">
         <v>2868.37</v>
       </c>
-      <c r="K13" t="n">
+      <c r="P13" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>563.938</v>
+      </c>
+      <c r="S13" t="n">
         <v>2874.77</v>
       </c>
-      <c r="L13" t="n">
-        <v>-6.40000000000009</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2874.77</v>
+      <c r="T13" t="n">
+        <v>14464.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>37804</v>
+        <v>37799</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>37804</v>
       </c>
       <c r="C14" s="1" t="n">
+        <v>37804</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>37809</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
         <v>5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
-        <v>6.2</v>
-      </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2812.28</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2817.32</v>
+      </c>
+      <c r="L14" t="n">
         <v>2817.63</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
+        <v>2817.63</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2812.4</v>
+      </c>
+      <c r="O14" t="n">
         <v>2815.14</v>
       </c>
-      <c r="K14" t="n">
+      <c r="P14" t="n">
+        <v>2.85999999999967</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>563.2624</v>
+      </c>
+      <c r="S14" t="n">
         <v>2817.63</v>
       </c>
-      <c r="L14" t="n">
-        <v>-2.49000000000024</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2817.63</v>
+      <c r="T14" t="n">
+        <v>14072.96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>37965</v>
+        <v>37960</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>37965</v>
       </c>
       <c r="C15" s="1" t="n">
+        <v>37965</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>37970</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
-        <v>100</v>
-      </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2815.33</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2808.42</v>
+      </c>
+      <c r="L15" t="n">
         <v>2822.78</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
+        <v>2822.78</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2815.45</v>
+      </c>
+      <c r="O15" t="n">
         <v>2812.81</v>
       </c>
-      <c r="K15" t="n">
+      <c r="P15" t="n">
+        <v>-2.51999999999998</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>561.9604</v>
+      </c>
+      <c r="S15" t="n">
         <v>2822.78</v>
       </c>
-      <c r="L15" t="n">
-        <v>-9.97000000000025</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2822.78</v>
+      <c r="T15" t="n">
+        <v>14062.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>37992</v>
+        <v>37987</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>37992</v>
       </c>
       <c r="C16" s="1" t="n">
+        <v>37992</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>37997</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
         <v>5</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="n">
-        <v>200</v>
-      </c>
       <c r="H16" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2778.21</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2777.96</v>
+      </c>
+      <c r="L16" t="n">
         <v>2778.92</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
+        <v>2778.92</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2765.76</v>
+      </c>
+      <c r="O16" t="n">
         <v>2754.33</v>
       </c>
-      <c r="K16" t="n">
+      <c r="P16" t="n">
+        <v>-23.8800000000001</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>555.612</v>
+      </c>
+      <c r="S16" t="n">
         <v>2778.92</v>
       </c>
-      <c r="L16" t="n">
-        <v>-24.5900000000001</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2778.92</v>
+      <c r="T16" t="n">
+        <v>13784.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>37995</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>38000</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="C17" s="1" t="n">
         <v>38001</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="D17" s="1" t="n">
         <v>38006</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
         <v>5</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="n">
-        <v>200</v>
-      </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2750.89</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2754.33</v>
+      </c>
+      <c r="L17" t="n">
         <v>2762.31</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
+        <v>2747.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2723.83</v>
+      </c>
+      <c r="O17" t="n">
         <v>2728.7</v>
       </c>
-      <c r="K17" t="n">
-        <v>2747.06</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-33.6100000000001</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
+        <v>-22.1900000000001</v>
+      </c>
+      <c r="Q17" t="n">
         <v>-7.625</v>
       </c>
-      <c r="N17" t="n">
+      <c r="R17" t="n">
+        <v>550.7284</v>
+      </c>
+      <c r="S17" t="n">
         <v>2754.685</v>
+      </c>
+      <c r="T17" t="n">
+        <v>13638.63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>38074</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>38079</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="C18" s="1" t="n">
         <v>38091</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="D18" s="1" t="n">
         <v>38096</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="n">
         <v>5</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>13</v>
       </c>
-      <c r="G18" t="n">
-        <v>200</v>
-      </c>
       <c r="H18" t="n">
-        <v>15.3846153846154</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2673.68</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2682.09</v>
+      </c>
+      <c r="L18" t="n">
         <v>2671.01</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
+        <v>2642.55</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2631.72</v>
+      </c>
+      <c r="O18" t="n">
         <v>2620.19</v>
       </c>
-      <c r="K18" t="n">
-        <v>2642.55</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-50.8200000000002</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
+        <v>-53.4899999999998</v>
+      </c>
+      <c r="Q18" t="n">
         <v>-2.18923076923077</v>
       </c>
-      <c r="N18" t="n">
+      <c r="R18" t="n">
+        <v>535.3816</v>
+      </c>
+      <c r="S18" t="n">
         <v>2660.56692307692</v>
+      </c>
+      <c r="T18" t="n">
+        <v>13111.88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>38136</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>38141</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="C19" s="1" t="n">
         <v>38145</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="D19" s="1" t="n">
         <v>38150</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5</v>
+      <c r="E19" t="s">
+        <v>20</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2724.92</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2736.39</v>
+      </c>
+      <c r="L19" t="n">
         <v>2727.68</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
+        <v>2715.37</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2707.33</v>
+      </c>
+      <c r="O19" t="n">
         <v>2734.94</v>
       </c>
-      <c r="K19" t="n">
-        <v>2715.37</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7.26000000000022</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="P19" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="Q19" t="n">
         <v>-2.46199999999999</v>
       </c>
-      <c r="N19" t="n">
+      <c r="R19" t="n">
+        <v>545.4428</v>
+      </c>
+      <c r="S19" t="n">
         <v>2719.296</v>
+      </c>
+      <c r="T19" t="n">
+        <v>13599.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>38155</v>
+        <v>38150</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>38155</v>
       </c>
       <c r="C20" s="1" t="n">
+        <v>38155</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>38160</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="n">
         <v>5</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>33.5</v>
-      </c>
       <c r="H20" t="n">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2734.94</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2735.05</v>
+      </c>
+      <c r="L20" t="n">
         <v>2725.87</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
+        <v>2725.87</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2713.07</v>
+      </c>
+      <c r="O20" t="n">
         <v>2710.99</v>
       </c>
-      <c r="K20" t="n">
+      <c r="P20" t="n">
+        <v>-23.9500000000003</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>546.9924</v>
+      </c>
+      <c r="S20" t="n">
         <v>2725.87</v>
       </c>
-      <c r="L20" t="n">
-        <v>-14.8800000000001</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2725.87</v>
+      <c r="T20" t="n">
+        <v>13557.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
+        <v>38164</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>38169</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="C21" s="1" t="n">
         <v>38170</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="D21" s="1" t="n">
         <v>38175</v>
       </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="n">
-        <v>166.2</v>
-      </c>
       <c r="H21" t="n">
-        <v>83.1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2697.08</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2699.58</v>
+      </c>
+      <c r="L21" t="n">
         <v>2694.09</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
+        <v>2682.25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2674.1</v>
+      </c>
+      <c r="O21" t="n">
         <v>2672.95</v>
       </c>
-      <c r="K21" t="n">
-        <v>2682.25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-21.1400000000003</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="P21" t="n">
+        <v>-24.1300000000001</v>
+      </c>
+      <c r="Q21" t="n">
         <v>-5.92000000000007</v>
       </c>
-      <c r="N21" t="n">
+      <c r="R21" t="n">
+        <v>539.4336</v>
+      </c>
+      <c r="S21" t="n">
         <v>2688.17</v>
+      </c>
+      <c r="T21" t="n">
+        <v>13369.35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
+        <v>38172</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>38177</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="C22" s="1" t="n">
         <v>38182</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="D22" s="1" t="n">
         <v>38187</v>
       </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
         <v>5</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>6</v>
       </c>
-      <c r="G22" t="n">
-        <v>33.7</v>
-      </c>
       <c r="H22" t="n">
-        <v>5.61666666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2674.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2675.05</v>
+      </c>
+      <c r="L22" t="n">
         <v>2677.42</v>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
+        <v>2674.41</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2662.19</v>
+      </c>
+      <c r="O22" t="n">
         <v>2628.3</v>
       </c>
-      <c r="K22" t="n">
-        <v>2674.41</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-49.1199999999999</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="P22" t="n">
+        <v>-45.7999999999997</v>
+      </c>
+      <c r="Q22" t="n">
         <v>-0.501666666666703</v>
       </c>
-      <c r="N22" t="n">
+      <c r="R22" t="n">
+        <v>534.812</v>
+      </c>
+      <c r="S22" t="n">
         <v>2671.38833333333</v>
+      </c>
+      <c r="T22" t="n">
+        <v>13189.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
+        <v>38197</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>38202</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="C23" s="1" t="n">
         <v>38212</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="D23" s="1" t="n">
         <v>38217</v>
       </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="n">
         <v>5</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>11</v>
       </c>
-      <c r="G23" t="n">
-        <v>177.7</v>
-      </c>
       <c r="H23" t="n">
-        <v>16.1545454545455</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2634.44</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2612.44</v>
+      </c>
+      <c r="L23" t="n">
         <v>2613.58</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
+        <v>2614.97</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2609.92</v>
+      </c>
+      <c r="O23" t="n">
         <v>2608.88</v>
       </c>
-      <c r="K23" t="n">
-        <v>2614.97</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-4.69999999999982</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
+        <v>-25.5599999999999</v>
+      </c>
+      <c r="Q23" t="n">
         <v>0.126363636363625</v>
       </c>
-      <c r="N23" t="n">
+      <c r="R23" t="n">
+        <v>523.6524</v>
+      </c>
+      <c r="S23" t="n">
         <v>2605.97727272727</v>
+      </c>
+      <c r="T23" t="n">
+        <v>13048.56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
+        <v>38213</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>38218</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="C24" s="1" t="n">
         <v>38222</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="D24" s="1" t="n">
         <v>38227</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5</v>
+      <c r="E24" t="s">
+        <v>20</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>22.1</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2609.92</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2608.88</v>
+      </c>
+      <c r="L24" t="n">
         <v>2609.88</v>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
+        <v>2606.57</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2595.75</v>
+      </c>
+      <c r="O24" t="n">
         <v>2574.49</v>
       </c>
-      <c r="K24" t="n">
-        <v>2606.57</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-35.3900000000003</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="P24" t="n">
+        <v>-35.4300000000003</v>
+      </c>
+      <c r="Q24" t="n">
         <v>-0.661999999999989</v>
       </c>
-      <c r="N24" t="n">
+      <c r="R24" t="n">
+        <v>521.9424</v>
+      </c>
+      <c r="S24" t="n">
         <v>2607.442</v>
+      </c>
+      <c r="T24" t="n">
+        <v>12903.68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>38232</v>
+      </c>
+      <c r="B25" s="1" t="n">
         <v>38237</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="C25" s="1" t="n">
         <v>38238</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="D25" s="1" t="n">
         <v>38243</v>
       </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="n">
         <v>5</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="n">
-        <v>200</v>
-      </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2538.59</v>
+      </c>
+      <c r="K25" t="n">
         <v>2564.89</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
+        <v>2564.89</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2552.74</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2536</v>
+      </c>
+      <c r="O25" t="n">
         <v>2535.29</v>
       </c>
-      <c r="K25" t="n">
-        <v>2552.74</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-29.5999999999999</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="P25" t="n">
+        <v>-3.30000000000018</v>
+      </c>
+      <c r="Q25" t="n">
         <v>-6.07500000000005</v>
       </c>
-      <c r="N25" t="n">
+      <c r="R25" t="n">
+        <v>511.4416</v>
+      </c>
+      <c r="S25" t="n">
         <v>2558.815</v>
+      </c>
+      <c r="T25" t="n">
+        <v>12664.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>38246</v>
+      </c>
+      <c r="B26" s="1" t="n">
         <v>38251</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="C26" s="1" t="n">
         <v>38253</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="D26" s="1" t="n">
         <v>38258</v>
       </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="n">
         <v>4</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.75</v>
-      </c>
       <c r="H26" t="n">
-        <v>0.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2536.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2518.3</v>
+      </c>
+      <c r="L26" t="n">
         <v>2548.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
+        <v>2560.66</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2567.83</v>
+      </c>
+      <c r="O26" t="n">
         <v>2600.64</v>
       </c>
-      <c r="K26" t="n">
-        <v>2560.66</v>
-      </c>
-      <c r="L26" t="n">
-        <v>52.4400000000001</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="P26" t="n">
+        <v>64.2399999999998</v>
+      </c>
+      <c r="Q26" t="n">
         <v>4.15333333333335</v>
       </c>
-      <c r="N26" t="n">
+      <c r="R26" t="n">
+        <v>504.5548</v>
+      </c>
+      <c r="S26" t="n">
         <v>2556.68666666667</v>
+      </c>
+      <c r="T26" t="n">
+        <v>12975.07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
+        <v>38266</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <v>38271</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="C27" s="1" t="n">
         <v>38366</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="D27" s="1" t="n">
         <v>38371</v>
       </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="n">
         <v>4</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>97</v>
       </c>
-      <c r="G27" t="n">
-        <v>1758.695</v>
-      </c>
       <c r="H27" t="n">
-        <v>18.1308762886598</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2608.36</v>
+      </c>
+      <c r="K27" t="n">
         <v>2583.74</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
+        <v>2583.74</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2340.42</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2351.23</v>
+      </c>
+      <c r="O27" t="n">
         <v>2371.77</v>
       </c>
-      <c r="K27" t="n">
-        <v>2340.42</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-211.97</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="P27" t="n">
+        <v>-236.59</v>
+      </c>
+      <c r="Q27" t="n">
         <v>-2.50845360824742</v>
       </c>
-      <c r="N27" t="n">
+      <c r="R27" t="n">
+        <v>519.2352</v>
+      </c>
+      <c r="S27" t="n">
         <v>2474.13969072165</v>
+      </c>
+      <c r="T27" t="n">
+        <v>11776.69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
+        <v>38333</v>
+      </c>
+      <c r="B28" s="1" t="n">
         <v>38338</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="C28" s="1" t="n">
         <v>38342</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="D28" s="1" t="n">
         <v>38347</v>
       </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6</v>
+      <c r="E28" t="s">
+        <v>24</v>
       </c>
       <c r="F28" t="n">
         <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>435.1</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>72.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2440.72</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2376.37</v>
+      </c>
+      <c r="L28" t="n">
         <v>2365.75</v>
       </c>
-      <c r="J28" t="n">
+      <c r="M28" t="n">
+        <v>2329.79</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2316.12</v>
+      </c>
+      <c r="O28" t="n">
         <v>2375.99</v>
       </c>
-      <c r="K28" t="n">
-        <v>2329.79</v>
-      </c>
-      <c r="L28" t="n">
-        <v>10.2399999999998</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="P28" t="n">
+        <v>-64.73</v>
+      </c>
+      <c r="Q28" t="n">
         <v>-5.99333333333334</v>
       </c>
-      <c r="N28" t="n">
+      <c r="R28" t="n">
+        <v>482.368</v>
+      </c>
+      <c r="S28" t="n">
         <v>2351.61833333333</v>
+      </c>
+      <c r="T28" t="n">
+        <v>11853.53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>38371</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>38376</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="C29" s="1" t="n">
         <v>38574</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="D29" s="1" t="n">
         <v>38579</v>
       </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="n">
         <v>4</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>199</v>
       </c>
-      <c r="G29" t="n">
-        <v>2382.479</v>
-      </c>
       <c r="H29" t="n">
-        <v>11.972256281407</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2371.77</v>
+      </c>
+      <c r="K29" t="n">
         <v>2373.86</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
+        <v>2373.86</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2305.63</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2299.75</v>
+      </c>
+      <c r="O29" t="n">
         <v>2308.38</v>
       </c>
-      <c r="K29" t="n">
-        <v>2305.63</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-65.48</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="P29" t="n">
+        <v>-63.3899999999999</v>
+      </c>
+      <c r="Q29" t="n">
         <v>-0.34286432160804</v>
       </c>
-      <c r="N29" t="n">
+      <c r="R29" t="n">
+        <v>474.5888</v>
+      </c>
+      <c r="S29" t="n">
         <v>2339.72728643216</v>
+      </c>
+      <c r="T29" t="n">
+        <v>11538.41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
+        <v>38576</v>
+      </c>
+      <c r="B30" s="1" t="n">
         <v>38581</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="C30" s="1" t="n">
         <v>38609</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="D30" s="1" t="n">
         <v>38614</v>
       </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="n">
         <v>4</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>29</v>
       </c>
-      <c r="G30" t="n">
-        <v>857.169</v>
-      </c>
       <c r="H30" t="n">
-        <v>29.5575517241379</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2313.52</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2308.38</v>
+      </c>
+      <c r="L30" t="n">
         <v>2301.74</v>
       </c>
-      <c r="J30" t="n">
+      <c r="M30" t="n">
+        <v>2295.02</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2290.02</v>
+      </c>
+      <c r="O30" t="n">
         <v>2301.99</v>
       </c>
-      <c r="K30" t="n">
-        <v>2295.02</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="P30" t="n">
+        <v>-11.5300000000002</v>
+      </c>
+      <c r="Q30" t="n">
         <v>-0.231724137931028</v>
       </c>
-      <c r="N30" t="n">
+      <c r="R30" t="n">
+        <v>461.8816</v>
+      </c>
+      <c r="S30" t="n">
         <v>2301.55034482759</v>
+      </c>
+      <c r="T30" t="n">
+        <v>11495.81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
+        <v>38610</v>
+      </c>
+      <c r="B31" s="1" t="n">
         <v>38615</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="C31" s="1" t="n">
         <v>38616</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="D31" s="1" t="n">
         <v>38621</v>
       </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="n">
         <v>4</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>2</v>
       </c>
-      <c r="G31" t="n">
-        <v>54.1</v>
-      </c>
       <c r="H31" t="n">
-        <v>27.05</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2290.02</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2301.99</v>
+      </c>
+      <c r="L31" t="n">
         <v>2295.57</v>
       </c>
-      <c r="J31" t="n">
+      <c r="M31" t="n">
+        <v>2300.58</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2291.05</v>
+      </c>
+      <c r="O31" t="n">
         <v>2290.03</v>
       </c>
-      <c r="K31" t="n">
-        <v>2300.58</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-5.53999999999996</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="P31" t="n">
+        <v>0.0100000000002183</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2.50499999999988</v>
       </c>
-      <c r="N31" t="n">
+      <c r="R31" t="n">
+        <v>459.8324</v>
+      </c>
+      <c r="S31" t="n">
         <v>2298.075</v>
+      </c>
+      <c r="T31" t="n">
+        <v>11453.73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>38622</v>
+        <v>38617</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>38622</v>
       </c>
       <c r="C32" s="1" t="n">
+        <v>38622</v>
+      </c>
+      <c r="D32" s="1" t="n">
         <v>38627</v>
       </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="n">
         <v>4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2291.05</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2290.03</v>
+      </c>
+      <c r="L32" t="n">
         <v>2289.18</v>
       </c>
-      <c r="J32" t="n">
+      <c r="M32" t="n">
+        <v>2289.18</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2290.74</v>
+      </c>
+      <c r="O32" t="n">
         <v>2288.22</v>
       </c>
-      <c r="K32" t="n">
+      <c r="P32" t="n">
+        <v>-2.83000000000038</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>458.1492</v>
+      </c>
+      <c r="S32" t="n">
         <v>2289.18</v>
       </c>
-      <c r="L32" t="n">
-        <v>-0.960000000000036</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2289.18</v>
+      <c r="T32" t="n">
+        <v>11450.08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
+        <v>38638</v>
+      </c>
+      <c r="B33" s="1" t="n">
         <v>38643</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="C33" s="1" t="n">
         <v>38646</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="D33" s="1" t="n">
         <v>38651</v>
       </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4</v>
+      <c r="E33" t="s">
+        <v>23</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>180.85</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>45.2125</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2299.47</v>
+      </c>
+      <c r="K33" t="n">
         <v>2294.75</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
+        <v>2294.75</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2289.15</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2288.69</v>
+      </c>
+      <c r="O33" t="n">
         <v>2284.05</v>
       </c>
-      <c r="K33" t="n">
-        <v>2289.15</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-10.6999999999998</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="P33" t="n">
+        <v>-15.4199999999996</v>
+      </c>
+      <c r="Q33" t="n">
         <v>-1.39999999999998</v>
       </c>
-      <c r="N33" t="n">
+      <c r="R33" t="n">
+        <v>459.3084</v>
+      </c>
+      <c r="S33" t="n">
         <v>2289.1375</v>
+      </c>
+      <c r="T33" t="n">
+        <v>11435.49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B34" s="1" t="n">
         <v>38664</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="C34" s="1" t="n">
         <v>38684</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="D34" s="1" t="n">
         <v>38689</v>
       </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="n">
         <v>4</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>21</v>
       </c>
-      <c r="G34" t="n">
-        <v>927.498</v>
-      </c>
       <c r="H34" t="n">
-        <v>44.1665714285714</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2285.24</v>
+      </c>
+      <c r="K34" t="n">
         <v>2282.76</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
+        <v>2282.76</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2275.4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2273.08</v>
+      </c>
+      <c r="O34" t="n">
         <v>2274.39</v>
       </c>
-      <c r="K34" t="n">
-        <v>2275.4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-8.37000000000035</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="P34" t="n">
+        <v>-10.8499999999999</v>
+      </c>
+      <c r="Q34" t="n">
         <v>-0.350476190476197</v>
       </c>
-      <c r="N34" t="n">
+      <c r="R34" t="n">
+        <v>456.692</v>
+      </c>
+      <c r="S34" t="n">
         <v>2278.77714285714</v>
+      </c>
+      <c r="T34" t="n">
+        <v>11369.17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38723</v>
+        <v>38718</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>38723</v>
       </c>
       <c r="C35" s="1" t="n">
+        <v>38723</v>
+      </c>
+      <c r="D35" s="1" t="n">
         <v>38728</v>
       </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="n">
         <v>4</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="n">
-        <v>10.25</v>
-      </c>
       <c r="H35" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2284.22</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2282.13</v>
+      </c>
+      <c r="L35" t="n">
         <v>2279.99</v>
       </c>
-      <c r="J35" t="n">
+      <c r="M35" t="n">
+        <v>2279.99</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2278.4</v>
+      </c>
+      <c r="O35" t="n">
         <v>2276.58</v>
       </c>
-      <c r="K35" t="n">
+      <c r="P35" t="n">
+        <v>-7.63999999999987</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>456.6824</v>
+      </c>
+      <c r="S35" t="n">
         <v>2279.99</v>
       </c>
-      <c r="L35" t="n">
-        <v>-3.40999999999985</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2279.99</v>
+      <c r="T35" t="n">
+        <v>11390.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
+        <v>38724</v>
+      </c>
+      <c r="B36" s="1" t="n">
         <v>38729</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="C36" s="1" t="n">
         <v>38777</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="D36" s="1" t="n">
         <v>38782</v>
       </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="n">
         <v>4</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>49</v>
       </c>
-      <c r="G36" t="n">
-        <v>1186.479</v>
-      </c>
       <c r="H36" t="n">
-        <v>24.2138571428571</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2278.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2276.58</v>
+      </c>
+      <c r="L36" t="n">
         <v>2274.73</v>
       </c>
-      <c r="J36" t="n">
+      <c r="M36" t="n">
+        <v>2245.71</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2247.48</v>
+      </c>
+      <c r="O36" t="n">
         <v>2256.17</v>
       </c>
-      <c r="K36" t="n">
-        <v>2245.71</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-18.5599999999999</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="P36" t="n">
+        <v>-22.23</v>
+      </c>
+      <c r="Q36" t="n">
         <v>-0.592244897959183</v>
       </c>
-      <c r="N36" t="n">
+      <c r="R36" t="n">
+        <v>455.6072</v>
+      </c>
+      <c r="S36" t="n">
         <v>2261.32897959184</v>
+      </c>
+      <c r="T36" t="n">
+        <v>11267.44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
+        <v>38812</v>
+      </c>
+      <c r="B37" s="1" t="n">
         <v>38817</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="C37" s="1" t="n">
         <v>38819</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="D37" s="1" t="n">
         <v>38824</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>142.5</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>47.5</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
+        <v>2288.67</v>
+      </c>
+      <c r="K37" t="n">
         <v>2342.35</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
+        <v>2342.35</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2336.26</v>
+      </c>
+      <c r="N37" t="n">
         <v>2335.16</v>
       </c>
-      <c r="K37" t="n">
-        <v>2336.26</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-7.19000000000005</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
+        <v>2335.16</v>
+      </c>
+      <c r="P37" t="n">
+        <v>46.4899999999998</v>
+      </c>
+      <c r="Q37" t="n">
         <v>-2.0299999999999</v>
       </c>
-      <c r="N37" t="n">
+      <c r="R37" t="n">
+        <v>463.2564</v>
+      </c>
+      <c r="S37" t="n">
         <v>2343.73</v>
+      </c>
+      <c r="T37" t="n">
+        <v>11675.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>38834</v>
+        <v>38829</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>38834</v>
       </c>
       <c r="C38" s="1" t="n">
+        <v>38834</v>
+      </c>
+      <c r="D38" s="1" t="n">
         <v>38839</v>
       </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>26</v>
       </c>
       <c r="H38" t="n">
         <v>26</v>
       </c>
       <c r="I38" t="n">
+        <v>26</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2337.42</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2348.49</v>
+      </c>
+      <c r="L38" t="n">
         <v>2373.94</v>
       </c>
-      <c r="J38" t="n">
+      <c r="M38" t="n">
+        <v>2373.94</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2375.66</v>
+      </c>
+      <c r="O38" t="n">
         <v>2375.03</v>
       </c>
-      <c r="K38" t="n">
+      <c r="P38" t="n">
+        <v>37.6100000000001</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>467.7496</v>
+      </c>
+      <c r="S38" t="n">
         <v>2373.94</v>
       </c>
-      <c r="L38" t="n">
-        <v>1.09000000000015</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2373.94</v>
+      <c r="T38" t="n">
+        <v>11875.78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
+        <v>38849</v>
+      </c>
+      <c r="B39" s="1" t="n">
         <v>38854</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="C39" s="1" t="n">
         <v>38861</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="D39" s="1" t="n">
         <v>38866</v>
       </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="n">
         <v>2</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>8</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>539.5</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>67.4375</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
+        <v>2346.06</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2424.27</v>
+      </c>
+      <c r="L39" t="n">
         <v>2410.96</v>
       </c>
-      <c r="J39" t="n">
+      <c r="M39" t="n">
+        <v>2490.06</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2518.34</v>
+      </c>
+      <c r="O39" t="n">
         <v>2475.75</v>
       </c>
-      <c r="K39" t="n">
-        <v>2490.06</v>
-      </c>
-      <c r="L39" t="n">
-        <v>64.79</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="P39" t="n">
+        <v>129.69</v>
+      </c>
+      <c r="Q39" t="n">
         <v>9.88749999999999</v>
       </c>
-      <c r="N39" t="n">
+      <c r="R39" t="n">
+        <v>475.9164</v>
+      </c>
+      <c r="S39" t="n">
         <v>2454.83125</v>
+      </c>
+      <c r="T39" t="n">
+        <v>12463.03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
+        <v>38862</v>
+      </c>
+      <c r="B40" s="1" t="n">
         <v>38867</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="C40" s="1" t="n">
         <v>38868</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="D40" s="1" t="n">
         <v>38873</v>
       </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2</v>
+      <c r="E40" t="s">
+        <v>21</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
       </c>
       <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
         <v>68.5</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>34.25</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
+        <v>2518.34</v>
+      </c>
+      <c r="K40" t="n">
         <v>2475.75</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
+        <v>2475.75</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2482.41</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2486.07</v>
+      </c>
+      <c r="O40" t="n">
         <v>2450.8</v>
       </c>
-      <c r="K40" t="n">
-        <v>2482.41</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-24.9499999999998</v>
-      </c>
-      <c r="M40" t="n">
+      <c r="P40" t="n">
+        <v>-67.54</v>
+      </c>
+      <c r="Q40" t="n">
         <v>3.32999999999993</v>
       </c>
-      <c r="N40" t="n">
+      <c r="R40" t="n">
+        <v>498.5212</v>
+      </c>
+      <c r="S40" t="n">
         <v>2479.08</v>
+      </c>
+      <c r="T40" t="n">
+        <v>12323.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>38872</v>
+      </c>
+      <c r="B41" s="1" t="n">
         <v>38877</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="C41" s="1" t="n">
         <v>38881</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="D41" s="1" t="n">
         <v>38886</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="n">
         <v>2</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>5</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>111.4</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>22.28</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
+        <v>2450.8</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2482.15</v>
+      </c>
+      <c r="L41" t="n">
         <v>2511.34</v>
       </c>
-      <c r="J41" t="n">
+      <c r="M41" t="n">
+        <v>2534.83</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2569.1</v>
+      </c>
+      <c r="O41" t="n">
         <v>2559.04</v>
       </c>
-      <c r="K41" t="n">
-        <v>2534.83</v>
-      </c>
-      <c r="L41" t="n">
-        <v>47.6999999999998</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="P41" t="n">
+        <v>108.24</v>
+      </c>
+      <c r="Q41" t="n">
         <v>4.69799999999996</v>
       </c>
-      <c r="N41" t="n">
+      <c r="R41" t="n">
+        <v>491.9384</v>
+      </c>
+      <c r="S41" t="n">
         <v>2515.726</v>
+      </c>
+      <c r="T41" t="n">
+        <v>12821.59</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
+        <v>38890</v>
+      </c>
+      <c r="B42" s="1" t="n">
         <v>38895</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="C42" s="1" t="n">
         <v>38896</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="D42" s="1" t="n">
         <v>38901</v>
       </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2</v>
+      <c r="E42" t="s">
+        <v>21</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
         <v>56.4</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>28.2</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
+        <v>2566.76</v>
+      </c>
+      <c r="K42" t="n">
         <v>2607.13</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
+        <v>2607.13</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2619.75</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2634.06</v>
+      </c>
+      <c r="O42" t="n">
         <v>2579.08</v>
       </c>
-      <c r="K42" t="n">
-        <v>2619.75</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-28.0500000000002</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="P42" t="n">
+        <v>12.3199999999997</v>
+      </c>
+      <c r="Q42" t="n">
         <v>6.30999999999995</v>
       </c>
-      <c r="N42" t="n">
+      <c r="R42" t="n">
+        <v>518.6468</v>
+      </c>
+      <c r="S42" t="n">
         <v>2613.44</v>
+      </c>
+      <c r="T42" t="n">
+        <v>13004.42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
+        <v>38917</v>
+      </c>
+      <c r="B43" s="1" t="n">
         <v>38922</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="C43" s="1" t="n">
         <v>38925</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="D43" s="1" t="n">
         <v>38930</v>
       </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="n">
         <v>6</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>4</v>
       </c>
-      <c r="G43" t="n">
-        <v>180</v>
-      </c>
       <c r="H43" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2531.85</v>
+      </c>
+      <c r="K43" t="n">
         <v>2470.32</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
+        <v>2470.32</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2466.95</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2443.35</v>
+      </c>
+      <c r="O43" t="n">
         <v>2426.52</v>
       </c>
-      <c r="K43" t="n">
-        <v>2466.95</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-43.8000000000002</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="P43" t="n">
+        <v>-105.33</v>
+      </c>
+      <c r="Q43" t="n">
         <v>-0.842500000000086</v>
       </c>
-      <c r="N43" t="n">
+      <c r="R43" t="n">
+        <v>500.594</v>
+      </c>
+      <c r="S43" t="n">
         <v>2461.655</v>
+      </c>
+      <c r="T43" t="n">
+        <v>12147.87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
+        <v>38926</v>
+      </c>
+      <c r="B44" s="1" t="n">
         <v>38931</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="C44" s="1" t="n">
         <v>38933</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="D44" s="1" t="n">
         <v>38938</v>
       </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="n">
         <v>6</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="n">
-        <v>180</v>
-      </c>
       <c r="H44" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2443.35</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2426.52</v>
+      </c>
+      <c r="L44" t="n">
         <v>2436.43</v>
       </c>
-      <c r="J44" t="n">
+      <c r="M44" t="n">
+        <v>2415.51</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2389.87</v>
+      </c>
+      <c r="O44" t="n">
         <v>2388.13</v>
       </c>
-      <c r="K44" t="n">
-        <v>2415.51</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-48.2999999999997</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
+        <v>-55.2199999999998</v>
+      </c>
+      <c r="Q44" t="n">
         <v>-6.97333333333321</v>
       </c>
-      <c r="N44" t="n">
+      <c r="R44" t="n">
+        <v>485.9148</v>
+      </c>
+      <c r="S44" t="n">
         <v>2427.06</v>
+      </c>
+      <c r="T44" t="n">
+        <v>11947.61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>38944</v>
+        <v>38939</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>38944</v>
       </c>
       <c r="C45" s="1" t="n">
+        <v>38944</v>
+      </c>
+      <c r="D45" s="1" t="n">
         <v>38949</v>
       </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="n">
         <v>6</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>1</v>
       </c>
-      <c r="G45" t="n">
-        <v>33.8</v>
-      </c>
       <c r="H45" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2363.82</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2371.77</v>
+      </c>
+      <c r="L45" t="n">
         <v>2372.95</v>
       </c>
-      <c r="J45" t="n">
+      <c r="M45" t="n">
+        <v>2372.95</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2362.28</v>
+      </c>
+      <c r="O45" t="n">
         <v>2370.49</v>
       </c>
-      <c r="K45" t="n">
+      <c r="P45" t="n">
+        <v>6.66999999999962</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>473.7076</v>
+      </c>
+      <c r="S45" t="n">
         <v>2372.95</v>
       </c>
-      <c r="L45" t="n">
-        <v>-2.46000000000004</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2372.95</v>
+      <c r="T45" t="n">
+        <v>11826.11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
+        <v>39016</v>
+      </c>
+      <c r="B46" s="1" t="n">
         <v>39021</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="C46" s="1" t="n">
         <v>39023</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="D46" s="1" t="n">
         <v>39028</v>
       </c>
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" t="n">
         <v>6</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>3</v>
       </c>
-      <c r="G46" t="n">
-        <v>66.8</v>
-      </c>
       <c r="H46" t="n">
-        <v>22.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2339.92</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2314.76</v>
+      </c>
+      <c r="L46" t="n">
         <v>2315.38</v>
       </c>
-      <c r="J46" t="n">
+      <c r="M46" t="n">
+        <v>2302.64</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2296.65</v>
+      </c>
+      <c r="O46" t="n">
         <v>2300.88</v>
       </c>
-      <c r="K46" t="n">
-        <v>2302.64</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-14.5</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="P46" t="n">
+        <v>-39.04</v>
+      </c>
+      <c r="Q46" t="n">
         <v>-4.24666666666675</v>
       </c>
-      <c r="N46" t="n">
+      <c r="R46" t="n">
+        <v>464.4572</v>
+      </c>
+      <c r="S46" t="n">
         <v>2308.83666666667</v>
+      </c>
+      <c r="T46" t="n">
+        <v>11500.17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
+        <v>39024</v>
+      </c>
+      <c r="B47" s="1" t="n">
         <v>39029</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="C47" s="1" t="n">
         <v>39030</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="D47" s="1" t="n">
         <v>39035</v>
       </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="n">
         <v>6</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>2</v>
       </c>
-      <c r="G47" t="n">
-        <v>113.2</v>
-      </c>
       <c r="H47" t="n">
-        <v>56.6</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2296.65</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2300.88</v>
+      </c>
+      <c r="L47" t="n">
         <v>2288.13</v>
       </c>
-      <c r="J47" t="n">
+      <c r="M47" t="n">
+        <v>2282.52</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2268.47</v>
+      </c>
+      <c r="O47" t="n">
         <v>2277.66</v>
       </c>
-      <c r="K47" t="n">
-        <v>2282.52</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-10.4700000000003</v>
-      </c>
-      <c r="M47" t="n">
+      <c r="P47" t="n">
+        <v>-18.9900000000002</v>
+      </c>
+      <c r="Q47" t="n">
         <v>-2.80500000000006</v>
       </c>
-      <c r="N47" t="n">
+      <c r="R47" t="n">
+        <v>460.0068</v>
+      </c>
+      <c r="S47" t="n">
         <v>2285.325</v>
+      </c>
+      <c r="T47" t="n">
+        <v>11379.11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>39072</v>
+        <v>39067</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>39072</v>
       </c>
       <c r="C48" s="1" t="n">
+        <v>39072</v>
+      </c>
+      <c r="D48" s="1" t="n">
         <v>39077</v>
       </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="n">
         <v>6</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>1</v>
       </c>
-      <c r="G48" t="n">
-        <v>10</v>
-      </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2262.15</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2249.28</v>
+      </c>
+      <c r="L48" t="n">
         <v>2234.36</v>
       </c>
-      <c r="J48" t="n">
+      <c r="M48" t="n">
+        <v>2234.36</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2229.28</v>
+      </c>
+      <c r="O48" t="n">
         <v>2228.76</v>
       </c>
-      <c r="K48" t="n">
+      <c r="P48" t="n">
+        <v>-33.3899999999999</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>451.6444</v>
+      </c>
+      <c r="S48" t="n">
         <v>2234.36</v>
       </c>
-      <c r="L48" t="n">
-        <v>-5.59999999999991</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2234.36</v>
+      <c r="T48" t="n">
+        <v>11144.32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
+        <v>39092</v>
+      </c>
+      <c r="B49" s="1" t="n">
         <v>39097</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="C49" s="1" t="n">
         <v>39107</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="D49" s="1" t="n">
         <v>39112</v>
       </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="n">
         <v>4</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>11</v>
       </c>
-      <c r="G49" t="n">
-        <v>1001.61</v>
-      </c>
       <c r="H49" t="n">
-        <v>91.0554545454545</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2238.52</v>
+      </c>
+      <c r="K49" t="n">
         <v>2221.35</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
+        <v>2221.35</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2254.67</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2252.88</v>
+      </c>
+      <c r="O49" t="n">
         <v>2261.22</v>
       </c>
-      <c r="K49" t="n">
-        <v>2254.67</v>
-      </c>
-      <c r="L49" t="n">
-        <v>39.8699999999999</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="P49" t="n">
+        <v>22.6999999999998</v>
+      </c>
+      <c r="Q49" t="n">
         <v>3.02909090909092</v>
       </c>
-      <c r="N49" t="n">
+      <c r="R49" t="n">
+        <v>446.532</v>
+      </c>
+      <c r="S49" t="n">
         <v>2231.65272727273</v>
+      </c>
+      <c r="T49" t="n">
+        <v>11292.39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
+        <v>39113</v>
+      </c>
+      <c r="B50" s="1" t="n">
         <v>39118</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="C50" s="1" t="n">
         <v>39139</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="D50" s="1" t="n">
         <v>39144</v>
       </c>
-      <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="n">
         <v>4</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>22</v>
       </c>
-      <c r="G50" t="n">
-        <v>1022.89</v>
-      </c>
       <c r="H50" t="n">
-        <v>46.495</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2259.72</v>
+      </c>
+      <c r="K50" t="n">
         <v>2241.53</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
+        <v>2241.53</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2216.57</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2211.46</v>
+      </c>
+      <c r="O50" t="n">
         <v>2242.62</v>
       </c>
-      <c r="K50" t="n">
-        <v>2216.57</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.08999999999969</v>
-      </c>
-      <c r="M50" t="n">
+      <c r="P50" t="n">
+        <v>-17.0999999999999</v>
+      </c>
+      <c r="Q50" t="n">
         <v>-1.13454545454546</v>
       </c>
-      <c r="N50" t="n">
+      <c r="R50" t="n">
+        <v>449.7604</v>
+      </c>
+      <c r="S50" t="n">
         <v>2225.09454545455</v>
+      </c>
+      <c r="T50" t="n">
+        <v>11157.02</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
+        <v>39151</v>
+      </c>
+      <c r="B51" s="1" t="n">
         <v>39156</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="C51" s="1" t="n">
         <v>39185</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="D51" s="1" t="n">
         <v>39190</v>
       </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="n">
         <v>4</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>30</v>
       </c>
-      <c r="G51" t="n">
-        <v>2074.472</v>
-      </c>
       <c r="H51" t="n">
-        <v>69.1490666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2210.98</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2206.38</v>
+      </c>
+      <c r="L51" t="n">
         <v>2210.12</v>
       </c>
-      <c r="J51" t="n">
+      <c r="M51" t="n">
+        <v>2152.65</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2138.74</v>
+      </c>
+      <c r="O51" t="n">
         <v>2141.35</v>
       </c>
-      <c r="K51" t="n">
-        <v>2152.65</v>
-      </c>
-      <c r="L51" t="n">
-        <v>-68.77</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="P51" t="n">
+        <v>-69.6300000000001</v>
+      </c>
+      <c r="Q51" t="n">
         <v>-1.91566666666666</v>
       </c>
-      <c r="N51" t="n">
+      <c r="R51" t="n">
+        <v>441.8036</v>
+      </c>
+      <c r="S51" t="n">
         <v>2178.02633333333</v>
+      </c>
+      <c r="T51" t="n">
+        <v>10694.39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
+        <v>39187</v>
+      </c>
+      <c r="B52" s="1" t="n">
         <v>39192</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="C52" s="1" t="n">
         <v>39202</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="D52" s="1" t="n">
         <v>39207</v>
       </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="n">
         <v>4</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>11</v>
       </c>
-      <c r="G52" t="n">
-        <v>428.44</v>
-      </c>
       <c r="H52" t="n">
-        <v>38.9490909090909</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2138.74</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2148.46</v>
+      </c>
+      <c r="L52" t="n">
         <v>2143.31</v>
       </c>
-      <c r="J52" t="n">
+      <c r="M52" t="n">
+        <v>2110.67</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2104.16</v>
+      </c>
+      <c r="O52" t="n">
         <v>2069.01</v>
       </c>
-      <c r="K52" t="n">
-        <v>2110.67</v>
-      </c>
-      <c r="L52" t="n">
-        <v>-74.2999999999997</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="P52" t="n">
+        <v>-69.7299999999996</v>
+      </c>
+      <c r="Q52" t="n">
         <v>-2.96727272727272</v>
       </c>
-      <c r="N52" t="n">
+      <c r="R52" t="n">
+        <v>428.1644</v>
+      </c>
+      <c r="S52" t="n">
         <v>2118.05818181818</v>
+      </c>
+      <c r="T52" t="n">
+        <v>10439.63</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
+        <v>39200</v>
+      </c>
+      <c r="B53" s="1" t="n">
         <v>39205</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="C53" s="1" t="n">
         <v>39206</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="D53" s="1" t="n">
         <v>39211</v>
       </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="n">
         <v>6</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2</v>
       </c>
-      <c r="G53" t="n">
-        <v>180</v>
-      </c>
       <c r="H53" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2110.67</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2104.16</v>
+      </c>
+      <c r="L53" t="n">
         <v>2085.18</v>
       </c>
-      <c r="J53" t="n">
+      <c r="M53" t="n">
+        <v>2077.12</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2069.01</v>
+      </c>
+      <c r="O53" t="n">
         <v>2074.03</v>
       </c>
-      <c r="K53" t="n">
-        <v>2077.12</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-11.1499999999996</v>
-      </c>
-      <c r="M53" t="n">
+      <c r="P53" t="n">
+        <v>-36.6399999999999</v>
+      </c>
+      <c r="Q53" t="n">
         <v>-4.02999999999997</v>
       </c>
-      <c r="N53" t="n">
+      <c r="R53" t="n">
+        <v>421.6132</v>
+      </c>
+      <c r="S53" t="n">
         <v>2081.15</v>
+      </c>
+      <c r="T53" t="n">
+        <v>10362.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
+        <v>39212</v>
+      </c>
+      <c r="B54" s="1" t="n">
         <v>39217</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="C54" s="1" t="n">
         <v>39227</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="D54" s="1" t="n">
         <v>39232</v>
       </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="n">
         <v>6</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>11</v>
       </c>
-      <c r="G54" t="n">
-        <v>180</v>
-      </c>
       <c r="H54" t="n">
-        <v>16.3636363636364</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2045.51</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2029.2</v>
+      </c>
+      <c r="L54" t="n">
         <v>2002.04</v>
       </c>
-      <c r="J54" t="n">
+      <c r="M54" t="n">
+        <v>1962.59</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1934.55</v>
+      </c>
+      <c r="O54" t="n">
         <v>1914.96</v>
       </c>
-      <c r="K54" t="n">
-        <v>1962.59</v>
-      </c>
-      <c r="L54" t="n">
-        <v>-87.0799999999999</v>
-      </c>
-      <c r="M54" t="n">
+      <c r="P54" t="n">
+        <v>-130.55</v>
+      </c>
+      <c r="Q54" t="n">
         <v>-3.58636363636364</v>
       </c>
-      <c r="N54" t="n">
+      <c r="R54" t="n">
+        <v>406.98</v>
+      </c>
+      <c r="S54" t="n">
         <v>1981.87818181818</v>
+      </c>
+      <c r="T54" t="n">
+        <v>9653.16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>39237</v>
+        <v>39232</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>39237</v>
       </c>
       <c r="C55" s="1" t="n">
+        <v>39237</v>
+      </c>
+      <c r="D55" s="1" t="n">
         <v>39242</v>
       </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="n">
         <v>6</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>1</v>
       </c>
-      <c r="G55" t="n">
-        <v>14.5</v>
-      </c>
       <c r="H55" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1885.8</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1924.54</v>
+        <v>1914.96</v>
       </c>
       <c r="K55" t="n">
         <v>1885.8</v>
       </c>
       <c r="L55" t="n">
-        <v>38.74</v>
+        <v>1885.8</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1885.8</v>
       </c>
       <c r="N55" t="n">
+        <v>1882.06</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1924.54</v>
+      </c>
+      <c r="P55" t="n">
+        <v>9.57999999999993</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>380.6916</v>
+      </c>
+      <c r="S55" t="n">
         <v>1885.8</v>
+      </c>
+      <c r="T55" t="n">
+        <v>9472.08</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
+        <v>39254</v>
+      </c>
+      <c r="B56" s="1" t="n">
         <v>39259</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="C56" s="1" t="n">
         <v>39260</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="D56" s="1" t="n">
         <v>39265</v>
       </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2</v>
+      <c r="E56" t="s">
+        <v>21</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
       </c>
       <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="n">
         <v>176.5</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>88.25</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
+        <v>1905.13</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1944.01</v>
+      </c>
+      <c r="L56" t="n">
         <v>1960.32</v>
       </c>
-      <c r="J56" t="n">
+      <c r="M56" t="n">
+        <v>1965.31</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1982.29</v>
+      </c>
+      <c r="O56" t="n">
         <v>1960.61</v>
       </c>
-      <c r="K56" t="n">
-        <v>1965.31</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.289999999999964</v>
-      </c>
-      <c r="M56" t="n">
+      <c r="P56" t="n">
+        <v>55.4799999999998</v>
+      </c>
+      <c r="Q56" t="n">
         <v>2.495</v>
       </c>
-      <c r="N56" t="n">
+      <c r="R56" t="n">
+        <v>387.0132</v>
+      </c>
+      <c r="S56" t="n">
         <v>1962.815</v>
+      </c>
+      <c r="T56" t="n">
+        <v>9822.21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>39308</v>
+        <v>39303</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>39308</v>
       </c>
       <c r="C57" s="1" t="n">
+        <v>39308</v>
+      </c>
+      <c r="D57" s="1" t="n">
         <v>39313</v>
       </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" t="n">
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="n">
         <v>2</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>179.9</v>
       </c>
       <c r="H57" t="n">
         <v>179.9</v>
       </c>
       <c r="I57" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1957.58</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2006.79</v>
+      </c>
+      <c r="L57" t="n">
         <v>1997.38</v>
       </c>
-      <c r="J57" t="n">
+      <c r="M57" t="n">
+        <v>1997.38</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2016.3</v>
+      </c>
+      <c r="O57" t="n">
         <v>2113.54</v>
       </c>
-      <c r="K57" t="n">
+      <c r="P57" t="n">
+        <v>155.96</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>398.394</v>
+      </c>
+      <c r="S57" t="n">
         <v>1997.38</v>
       </c>
-      <c r="L57" t="n">
-        <v>116.16</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1997.38</v>
+      <c r="T57" t="n">
+        <v>10416.22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
+        <v>39340</v>
+      </c>
+      <c r="B58" s="1" t="n">
         <v>39345</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="C58" s="1" t="n">
         <v>39351</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="D58" s="1" t="n">
         <v>39356</v>
       </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" t="n">
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="n">
         <v>6</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>7</v>
       </c>
-      <c r="G58" t="n">
-        <v>179.5</v>
-      </c>
       <c r="H58" t="n">
-        <v>25.6428571428571</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2128.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2124.36</v>
+      </c>
+      <c r="L58" t="n">
         <v>2055.28</v>
       </c>
-      <c r="J58" t="n">
+      <c r="M58" t="n">
+        <v>2045.51</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2009.46</v>
+      </c>
+      <c r="O58" t="n">
         <v>2023.19</v>
       </c>
-      <c r="K58" t="n">
-        <v>2045.51</v>
-      </c>
-      <c r="L58" t="n">
-        <v>-32.0900000000001</v>
-      </c>
-      <c r="M58" t="n">
+      <c r="P58" t="n">
+        <v>-105.31</v>
+      </c>
+      <c r="Q58" t="n">
         <v>-1.39571428571432</v>
       </c>
-      <c r="N58" t="n">
+      <c r="R58" t="n">
+        <v>425.6208</v>
+      </c>
+      <c r="S58" t="n">
         <v>2035.90857142857</v>
+      </c>
+      <c r="T58" t="n">
+        <v>10092.21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>39364</v>
+        <v>39359</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>39364</v>
       </c>
       <c r="C59" s="1" t="n">
+        <v>39364</v>
+      </c>
+      <c r="D59" s="1" t="n">
         <v>39369</v>
       </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" t="n">
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="n">
         <v>6</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>1</v>
       </c>
-      <c r="G59" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H59" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1999.95</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1978.97</v>
+        <v>2017.69</v>
       </c>
       <c r="K59" t="n">
         <v>1999.95</v>
       </c>
       <c r="L59" t="n">
-        <v>-20.98</v>
+        <v>1999.95</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1999.95</v>
       </c>
       <c r="N59" t="n">
+        <v>1968.13</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1978.97</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-38.72</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>401.4396</v>
+      </c>
+      <c r="S59" t="n">
         <v>1999.95</v>
+      </c>
+      <c r="T59" t="n">
+        <v>9861.91</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>39409</v>
+        <v>39404</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>39409</v>
       </c>
       <c r="C60" s="1" t="n">
+        <v>39409</v>
+      </c>
+      <c r="D60" s="1" t="n">
         <v>39414</v>
       </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="n">
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="n">
         <v>2</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>12.5</v>
       </c>
       <c r="H60" t="n">
         <v>12.5</v>
       </c>
       <c r="I60" t="n">
-        <v>2074.6</v>
+        <v>12.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2094.74</v>
+        <v>2040.35</v>
       </c>
       <c r="K60" t="n">
         <v>2074.6</v>
       </c>
       <c r="L60" t="n">
-        <v>20.1399999999999</v>
+        <v>2074.6</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>2074.6</v>
       </c>
       <c r="N60" t="n">
+        <v>2088.24</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2094.74</v>
+      </c>
+      <c r="P60" t="n">
+        <v>54.3899999999999</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>410.6352</v>
+      </c>
+      <c r="S60" t="n">
         <v>2074.6</v>
+      </c>
+      <c r="T60" t="n">
+        <v>10448.57</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
+        <v>39486</v>
+      </c>
+      <c r="B61" s="1" t="n">
         <v>39491</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="C61" s="1" t="n">
         <v>39492</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="D61" s="1" t="n">
         <v>39497</v>
       </c>
-      <c r="D61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" t="n">
         <v>6</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>2</v>
       </c>
-      <c r="G61" t="n">
-        <v>102.65</v>
-      </c>
       <c r="H61" t="n">
-        <v>51.325</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1935.49</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1912.8</v>
+      </c>
+      <c r="L61" t="n">
         <v>1901.38</v>
       </c>
-      <c r="J61" t="n">
+      <c r="M61" t="n">
+        <v>1898.4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1894.87</v>
+      </c>
+      <c r="O61" t="n">
         <v>1905.37</v>
       </c>
-      <c r="K61" t="n">
-        <v>1898.4</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.98999999999978</v>
-      </c>
-      <c r="M61" t="n">
+      <c r="P61" t="n">
+        <v>-30.1200000000001</v>
+      </c>
+      <c r="Q61" t="n">
         <v>-1.49000000000001</v>
       </c>
-      <c r="N61" t="n">
+      <c r="R61" t="n">
+        <v>384.7012</v>
+      </c>
+      <c r="S61" t="n">
         <v>1899.89</v>
+      </c>
+      <c r="T61" t="n">
+        <v>9516.35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>39506</v>
+        <v>39501</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>39506</v>
       </c>
       <c r="C62" s="1" t="n">
+        <v>39506</v>
+      </c>
+      <c r="D62" s="1" t="n">
         <v>39511</v>
       </c>
-      <c r="D62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" t="n">
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="n">
         <v>6</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>1</v>
       </c>
-      <c r="G62" t="n">
-        <v>130</v>
-      </c>
       <c r="H62" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1892</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1879.19</v>
+      </c>
+      <c r="L62" t="n">
         <v>1854.87</v>
       </c>
-      <c r="J62" t="n">
+      <c r="M62" t="n">
+        <v>1854.87</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1843.59</v>
+      </c>
+      <c r="O62" t="n">
         <v>1849.46</v>
       </c>
-      <c r="K62" t="n">
+      <c r="P62" t="n">
+        <v>-42.54</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>377.7264</v>
+      </c>
+      <c r="S62" t="n">
         <v>1854.87</v>
       </c>
-      <c r="L62" t="n">
-        <v>-5.40999999999985</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1854.87</v>
+      <c r="T62" t="n">
+        <v>9228.56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>39526</v>
+        <v>39521</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>39526</v>
       </c>
       <c r="C63" s="1" t="n">
+        <v>39526</v>
+      </c>
+      <c r="D63" s="1" t="n">
         <v>39531</v>
       </c>
-      <c r="D63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="n">
         <v>6</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>1</v>
       </c>
-      <c r="G63" t="n">
-        <v>38</v>
-      </c>
       <c r="H63" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1856.01</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1857.55</v>
+      </c>
+      <c r="L63" t="n">
         <v>1823.11</v>
       </c>
-      <c r="J63" t="n">
+      <c r="M63" t="n">
+        <v>1823.11</v>
+      </c>
+      <c r="N63" t="n">
         <v>1815.65</v>
       </c>
-      <c r="K63" t="n">
+      <c r="O63" t="n">
+        <v>1815.65</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-40.3599999999999</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>369.8164</v>
+      </c>
+      <c r="S63" t="n">
         <v>1823.11</v>
       </c>
-      <c r="L63" t="n">
-        <v>-7.45999999999981</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1823.11</v>
+      <c r="T63" t="n">
+        <v>9078.25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
+        <v>39537</v>
+      </c>
+      <c r="B64" s="1" t="n">
         <v>39542</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="C64" s="1" t="n">
         <v>39548</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="D64" s="1" t="n">
         <v>39553</v>
       </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="n">
         <v>5</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>7</v>
       </c>
-      <c r="G64" t="n">
-        <v>97</v>
-      </c>
       <c r="H64" t="n">
-        <v>13.8571428571429</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1821.6</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1826.34</v>
+      </c>
+      <c r="L64" t="n">
         <v>1824.39</v>
       </c>
-      <c r="J64" t="n">
+      <c r="M64" t="n">
+        <v>1799.07</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1791.63</v>
+      </c>
+      <c r="O64" t="n">
         <v>1792.69</v>
       </c>
-      <c r="K64" t="n">
-        <v>1799.07</v>
-      </c>
-      <c r="L64" t="n">
-        <v>-31.7</v>
-      </c>
-      <c r="M64" t="n">
+      <c r="P64" t="n">
+        <v>-28.9099999999999</v>
+      </c>
+      <c r="Q64" t="n">
         <v>-3.61714285714288</v>
       </c>
-      <c r="N64" t="n">
+      <c r="R64" t="n">
+        <v>365.2976</v>
+      </c>
+      <c r="S64" t="n">
         <v>1813.76857142857</v>
+      </c>
+      <c r="T64" t="n">
+        <v>8961.79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
+        <v>39551</v>
+      </c>
+      <c r="B65" s="1" t="n">
         <v>39556</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="C65" s="1" t="n">
         <v>39561</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="D65" s="1" t="n">
         <v>39566</v>
       </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="n">
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="n">
         <v>5</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>6</v>
       </c>
-      <c r="G65" t="n">
-        <v>53</v>
-      </c>
       <c r="H65" t="n">
-        <v>8.83333333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1792.49</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1798.89</v>
+      </c>
+      <c r="L65" t="n">
         <v>1792.87</v>
       </c>
-      <c r="J65" t="n">
+      <c r="M65" t="n">
+        <v>1775.08</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1765.3</v>
+      </c>
+      <c r="O65" t="n">
         <v>1775.22</v>
       </c>
-      <c r="K65" t="n">
-        <v>1775.08</v>
-      </c>
-      <c r="L65" t="n">
-        <v>-17.6499999999999</v>
-      </c>
-      <c r="M65" t="n">
+      <c r="P65" t="n">
+        <v>-17.27</v>
+      </c>
+      <c r="Q65" t="n">
         <v>-2.96499999999999</v>
       </c>
-      <c r="N65" t="n">
+      <c r="R65" t="n">
+        <v>358.978</v>
+      </c>
+      <c r="S65" t="n">
         <v>1784.04166666667</v>
+      </c>
+      <c r="T65" t="n">
+        <v>8856.71</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>39562</v>
+        <v>39557</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>39562</v>
       </c>
       <c r="C66" s="1" t="n">
+        <v>39562</v>
+      </c>
+      <c r="D66" s="1" t="n">
         <v>39567</v>
       </c>
-      <c r="D66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" t="n">
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" t="n">
         <v>6</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>1</v>
       </c>
-      <c r="G66" t="n">
-        <v>62.5</v>
-      </c>
       <c r="H66" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1785.17</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1775.08</v>
+      </c>
+      <c r="L66" t="n">
         <v>1765.3</v>
       </c>
-      <c r="J66" t="n">
+      <c r="M66" t="n">
+        <v>1765.3</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1765.75</v>
+      </c>
+      <c r="O66" t="n">
         <v>1767.73</v>
       </c>
-      <c r="K66" t="n">
+      <c r="P66" t="n">
+        <v>-17.4400000000001</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>356.4552</v>
+      </c>
+      <c r="S66" t="n">
         <v>1765.3</v>
       </c>
-      <c r="L66" t="n">
-        <v>2.43000000000006</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1765.3</v>
+      <c r="T66" t="n">
+        <v>8859.14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>39570</v>
+        <v>39565</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>39570</v>
       </c>
       <c r="C67" s="1" t="n">
+        <v>39570</v>
+      </c>
+      <c r="D67" s="1" t="n">
         <v>39575</v>
       </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="n">
         <v>5</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>1</v>
       </c>
-      <c r="G67" t="n">
-        <v>53.5</v>
-      </c>
       <c r="H67" t="n">
-        <v>53.5</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1767.27</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1769.32</v>
+        <v>1775.22</v>
       </c>
       <c r="K67" t="n">
         <v>1767.27</v>
       </c>
       <c r="L67" t="n">
-        <v>2.04999999999995</v>
+        <v>1767.27</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1767.27</v>
       </c>
       <c r="N67" t="n">
+        <v>1756.25</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1769.32</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-5.90000000000009</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>354.626</v>
+      </c>
+      <c r="S67" t="n">
         <v>1767.27</v>
+      </c>
+      <c r="T67" t="n">
+        <v>8794.32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
+        <v>39590</v>
+      </c>
+      <c r="B68" s="1" t="n">
         <v>39595</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="C68" s="1" t="n">
         <v>39604</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="D68" s="1" t="n">
         <v>39608</v>
       </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" t="n">
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="n">
         <v>5</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>10</v>
       </c>
-      <c r="G68" t="n">
-        <v>269.5</v>
-      </c>
       <c r="H68" t="n">
-        <v>26.95</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1779.48</v>
+      </c>
+      <c r="K68" t="n">
         <v>1777.98</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
+        <v>1777.98</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1728.76</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1728.76</v>
+      </c>
+      <c r="O68" t="n">
         <v>1702.44</v>
       </c>
-      <c r="K68" t="n">
-        <v>1728.76</v>
-      </c>
-      <c r="L68" t="n">
-        <v>-75.54</v>
-      </c>
-      <c r="M68" t="n">
+      <c r="P68" t="n">
+        <v>-77.04</v>
+      </c>
+      <c r="Q68" t="n">
         <v>-4.922</v>
       </c>
-      <c r="N68" t="n">
+      <c r="R68" t="n">
+        <v>355.7204</v>
+      </c>
+      <c r="S68" t="n">
         <v>1750.93</v>
+      </c>
+      <c r="T68" t="n">
+        <v>8546.03</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
+        <v>39598</v>
+      </c>
+      <c r="B69" s="1" t="n">
         <v>39603</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="C69" s="1" t="n">
         <v>39604</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="D69" s="1" t="n">
         <v>39609</v>
       </c>
-      <c r="D69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" t="n">
         <v>6</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>3</v>
       </c>
-      <c r="G69" t="n">
-        <v>205.5</v>
-      </c>
       <c r="H69" t="n">
-        <v>68.5</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1755.95</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1744.01</v>
+      </c>
+      <c r="L69" t="n">
         <v>1730.61</v>
       </c>
-      <c r="J69" t="n">
+      <c r="M69" t="n">
+        <v>1728.76</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1709.95</v>
+      </c>
+      <c r="O69" t="n">
         <v>1687.13</v>
       </c>
-      <c r="K69" t="n">
-        <v>1728.76</v>
-      </c>
-      <c r="L69" t="n">
-        <v>-43.4799999999998</v>
-      </c>
-      <c r="M69" t="n">
+      <c r="P69" t="n">
+        <v>-68.8199999999999</v>
+      </c>
+      <c r="Q69" t="n">
         <v>-0.616666666666636</v>
       </c>
-      <c r="N69" t="n">
+      <c r="R69" t="n">
+        <v>349.2796</v>
+      </c>
+      <c r="S69" t="n">
         <v>1729.37666666667</v>
+      </c>
+      <c r="T69" t="n">
+        <v>8504.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
+        <v>39712</v>
+      </c>
+      <c r="B70" s="1" t="n">
         <v>39728</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="C70" s="1" t="n">
         <v>39729</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="D70" s="1" t="n">
         <v>39734</v>
       </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2</v>
+      <c r="E70" t="s">
+        <v>21</v>
       </c>
       <c r="F70" t="n">
         <v>2</v>
       </c>
       <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="n">
         <v>174.9</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>87.45</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
+        <v>2067.45</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2160.08</v>
+      </c>
+      <c r="L70" t="n">
         <v>2250.73</v>
       </c>
-      <c r="J70" t="n">
+      <c r="M70" t="n">
+        <v>2261.96</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2326.41</v>
+      </c>
+      <c r="O70" t="n">
         <v>2318.63</v>
       </c>
-      <c r="K70" t="n">
-        <v>2261.96</v>
-      </c>
-      <c r="L70" t="n">
-        <v>67.9000000000001</v>
-      </c>
-      <c r="M70" t="n">
+      <c r="P70" t="n">
+        <v>251.18</v>
+      </c>
+      <c r="Q70" t="n">
         <v>5.61500000000001</v>
       </c>
-      <c r="N70" t="n">
+      <c r="R70" t="n">
+        <v>423.9532</v>
+      </c>
+      <c r="S70" t="n">
         <v>2256.345</v>
+      </c>
+      <c r="T70" t="n">
+        <v>11536.54</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
+        <v>39740</v>
+      </c>
+      <c r="B71" s="1" t="n">
         <v>39745</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="C71" s="1" t="n">
         <v>39748</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="D71" s="1" t="n">
         <v>39753</v>
       </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="n">
         <v>2</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>4</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>59.65</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>14.9125</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
+        <v>2271.98</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2346.47</v>
+      </c>
+      <c r="L71" t="n">
         <v>2361.01</v>
       </c>
-      <c r="J71" t="n">
+      <c r="M71" t="n">
+        <v>2386.48</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2379.24</v>
+      </c>
+      <c r="O71" t="n">
         <v>2392.28</v>
       </c>
-      <c r="K71" t="n">
-        <v>2386.48</v>
-      </c>
-      <c r="L71" t="n">
-        <v>31.27</v>
-      </c>
-      <c r="M71" t="n">
+      <c r="P71" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="Q71" t="n">
         <v>6.36749999999995</v>
       </c>
-      <c r="N71" t="n">
+      <c r="R71" t="n">
+        <v>457.2096</v>
+      </c>
+      <c r="S71" t="n">
         <v>2380.1125</v>
+      </c>
+      <c r="T71" t="n">
+        <v>11887.45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>39800</v>
+        <v>39795</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>39800</v>
       </c>
       <c r="C72" s="1" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D72" s="1" t="n">
         <v>39805</v>
       </c>
-      <c r="D72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" t="n">
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" t="n">
         <v>6</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>1</v>
       </c>
-      <c r="G72" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H72" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2273.24</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2223.3</v>
+      </c>
+      <c r="L72" t="n">
         <v>2173.86</v>
       </c>
-      <c r="J72" t="n">
+      <c r="M72" t="n">
+        <v>2173.86</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2163.14</v>
+      </c>
+      <c r="O72" t="n">
         <v>2169.83</v>
       </c>
-      <c r="K72" t="n">
+      <c r="P72" t="n">
+        <v>-103.41</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>451.9008</v>
+      </c>
+      <c r="S72" t="n">
         <v>2173.86</v>
       </c>
-      <c r="L72" t="n">
-        <v>-4.0300000000002</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2173.86</v>
+      <c r="T72" t="n">
+        <v>10835.02</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
+        <v>39838</v>
+      </c>
+      <c r="B73" s="1" t="n">
         <v>39843</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="C73" s="1" t="n">
         <v>39848</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="D73" s="1" t="n">
         <v>39853</v>
       </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="n">
         <v>2</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>6</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>346</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>57.6666666666667</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
+        <v>2280.77</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2341.09</v>
+      </c>
+      <c r="L73" t="n">
         <v>2386.58</v>
       </c>
-      <c r="J73" t="n">
+      <c r="M73" t="n">
+        <v>2443.67</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2469.02</v>
+      </c>
+      <c r="O73" t="n">
         <v>2449.49</v>
       </c>
-      <c r="K73" t="n">
-        <v>2443.67</v>
-      </c>
-      <c r="L73" t="n">
-        <v>62.9099999999999</v>
-      </c>
-      <c r="M73" t="n">
+      <c r="P73" t="n">
+        <v>168.72</v>
+      </c>
+      <c r="Q73" t="n">
         <v>9.51500000000002</v>
       </c>
-      <c r="N73" t="n">
+      <c r="R73" t="n">
+        <v>459.7556</v>
+      </c>
+      <c r="S73" t="n">
         <v>2423.635</v>
+      </c>
+      <c r="T73" t="n">
+        <v>12290.14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>39854</v>
+        <v>39849</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>39854</v>
       </c>
       <c r="C74" s="1" t="n">
+        <v>39854</v>
+      </c>
+      <c r="D74" s="1" t="n">
         <v>39859</v>
       </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" t="n">
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="n">
         <v>2</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>1</v>
-      </c>
-      <c r="G74" t="n">
-        <v>14</v>
       </c>
       <c r="H74" t="n">
         <v>14</v>
       </c>
       <c r="I74" t="n">
+        <v>14</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2469.02</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2449.49</v>
+      </c>
+      <c r="L74" t="n">
         <v>2450.6</v>
       </c>
-      <c r="J74" t="n">
+      <c r="M74" t="n">
+        <v>2450.6</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2494.07</v>
+      </c>
+      <c r="O74" t="n">
         <v>2509.5</v>
       </c>
-      <c r="K74" t="n">
+      <c r="P74" t="n">
+        <v>40.48</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>491.6056</v>
+      </c>
+      <c r="S74" t="n">
         <v>2450.6</v>
       </c>
-      <c r="L74" t="n">
-        <v>58.9000000000001</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2450.6</v>
+      <c r="T74" t="n">
+        <v>12570.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
+        <v>39855</v>
+      </c>
+      <c r="B75" s="1" t="n">
         <v>39860</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="C75" s="1" t="n">
         <v>39862</v>
       </c>
-      <c r="C75" s="1" t="n">
+      <c r="D75" s="1" t="n">
         <v>39867</v>
       </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" t="n">
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="n">
         <v>2</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>3</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>8.5</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>2.83333333333333</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
+        <v>2494.07</v>
+      </c>
+      <c r="K75" t="n">
         <v>2509.5</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
+        <v>2509.5</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2554.4</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2558.14</v>
+      </c>
+      <c r="O75" t="n">
         <v>2588.31</v>
       </c>
-      <c r="K75" t="n">
-        <v>2554.4</v>
-      </c>
-      <c r="L75" t="n">
-        <v>78.8099999999999</v>
-      </c>
-      <c r="M75" t="n">
+      <c r="P75" t="n">
+        <v>94.2399999999998</v>
+      </c>
+      <c r="Q75" t="n">
         <v>14.9666666666667</v>
       </c>
-      <c r="N75" t="n">
+      <c r="R75" t="n">
+        <v>502.838</v>
+      </c>
+      <c r="S75" t="n">
         <v>2524.46666666667</v>
+      </c>
+      <c r="T75" t="n">
+        <v>12870.47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
+        <v>39885</v>
+      </c>
+      <c r="B76" s="1" t="n">
         <v>39890</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="C76" s="1" t="n">
         <v>39891</v>
       </c>
-      <c r="C76" s="1" t="n">
+      <c r="D76" s="1" t="n">
         <v>39896</v>
       </c>
-      <c r="D76" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" t="n">
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" t="n">
         <v>6</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>2</v>
       </c>
-      <c r="G76" t="n">
-        <v>179.9</v>
-      </c>
       <c r="H76" t="n">
-        <v>89.95</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2481.26</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2390.96</v>
+      </c>
+      <c r="L76" t="n">
         <v>2390.98</v>
       </c>
-      <c r="J76" t="n">
+      <c r="M76" t="n">
+        <v>2383.15</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2335.29</v>
+      </c>
+      <c r="O76" t="n">
         <v>2340.83</v>
       </c>
-      <c r="K76" t="n">
-        <v>2383.15</v>
-      </c>
-      <c r="L76" t="n">
-        <v>-50.1500000000001</v>
-      </c>
-      <c r="M76" t="n">
+      <c r="P76" t="n">
+        <v>-140.43</v>
+      </c>
+      <c r="Q76" t="n">
         <v>-3.91499999999996</v>
       </c>
-      <c r="N76" t="n">
+      <c r="R76" t="n">
+        <v>488.3248</v>
+      </c>
+      <c r="S76" t="n">
         <v>2387.065</v>
+      </c>
+      <c r="T76" t="n">
+        <v>11698.61</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
+        <v>39963</v>
+      </c>
+      <c r="B77" s="1" t="n">
         <v>39968</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="C77" s="1" t="n">
         <v>39969</v>
       </c>
-      <c r="C77" s="1" t="n">
+      <c r="D77" s="1" t="n">
         <v>39974</v>
       </c>
-      <c r="D77" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="E77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" t="n">
         <v>6</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>2</v>
       </c>
-      <c r="G77" t="n">
-        <v>58.45</v>
-      </c>
       <c r="H77" t="n">
-        <v>29.225</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2140.66</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2077.02</v>
+      </c>
+      <c r="L77" t="n">
         <v>2073.55</v>
       </c>
-      <c r="J77" t="n">
+      <c r="M77" t="n">
+        <v>2072</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2063.1</v>
+      </c>
+      <c r="O77" t="n">
         <v>2060.18</v>
       </c>
-      <c r="K77" t="n">
-        <v>2072</v>
-      </c>
-      <c r="L77" t="n">
-        <v>-13.3700000000003</v>
-      </c>
-      <c r="M77" t="n">
+      <c r="P77" t="n">
+        <v>-80.48</v>
+      </c>
+      <c r="Q77" t="n">
         <v>-0.775000000000091</v>
       </c>
-      <c r="N77" t="n">
+      <c r="R77" t="n">
+        <v>424.3368</v>
+      </c>
+      <c r="S77" t="n">
         <v>2072.775</v>
+      </c>
+      <c r="T77" t="n">
+        <v>10340.58</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>39975</v>
+        <v>39970</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>39975</v>
       </c>
       <c r="C78" s="1" t="n">
+        <v>39975</v>
+      </c>
+      <c r="D78" s="1" t="n">
         <v>39980</v>
       </c>
-      <c r="D78" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="E78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" t="n">
         <v>6</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>1</v>
       </c>
-      <c r="G78" t="n">
-        <v>121.55</v>
-      </c>
       <c r="H78" t="n">
-        <v>121.55</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2063.1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2060.18</v>
+      </c>
+      <c r="L78" t="n">
         <v>2042.19</v>
       </c>
-      <c r="J78" t="n">
+      <c r="M78" t="n">
+        <v>2042.19</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2026.17</v>
+      </c>
+      <c r="O78" t="n">
         <v>2015.4</v>
       </c>
-      <c r="K78" t="n">
+      <c r="P78" t="n">
+        <v>-47.6999999999998</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>413.6232</v>
+      </c>
+      <c r="S78" t="n">
         <v>2042.19</v>
       </c>
-      <c r="L78" t="n">
-        <v>-26.79</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>2042.19</v>
+      <c r="T78" t="n">
+        <v>10087.77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
+        <v>40011</v>
+      </c>
+      <c r="B79" s="1" t="n">
         <v>40016</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="C79" s="1" t="n">
         <v>40017</v>
       </c>
-      <c r="C79" s="1" t="n">
+      <c r="D79" s="1" t="n">
         <v>40022</v>
       </c>
-      <c r="D79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" t="n">
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" t="n">
         <v>6</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>2</v>
       </c>
-      <c r="G79" t="n">
-        <v>179.5</v>
-      </c>
       <c r="H79" t="n">
-        <v>89.75</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2025.71</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2006.82</v>
+      </c>
+      <c r="L79" t="n">
         <v>1986.35</v>
       </c>
-      <c r="J79" t="n">
+      <c r="M79" t="n">
+        <v>1975.05</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1953.12</v>
+      </c>
+      <c r="O79" t="n">
         <v>1982.43</v>
       </c>
-      <c r="K79" t="n">
-        <v>1975.05</v>
-      </c>
-      <c r="L79" t="n">
-        <v>-3.91999999999985</v>
-      </c>
-      <c r="M79" t="n">
+      <c r="P79" t="n">
+        <v>-43.28</v>
+      </c>
+      <c r="Q79" t="n">
         <v>-5.64999999999998</v>
       </c>
-      <c r="N79" t="n">
+      <c r="R79" t="n">
+        <v>402.1196</v>
+      </c>
+      <c r="S79" t="n">
         <v>1980.7</v>
+      </c>
+      <c r="T79" t="n">
+        <v>9845.88</v>
       </c>
     </row>
   </sheetData>
